--- a/REGULAR/RE-ENCODE/re encode/MACAPUNO, FELIX.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/MACAPUNO, FELIX.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121C36C-935A-4B55-9D87-7DC4E713B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,12 +238,15 @@
   </si>
   <si>
     <t>5/4,5/2023</t>
+  </si>
+  <si>
+    <t>6/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -914,7 +918,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -931,25 +935,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1256,34 +1260,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1308,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1326,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1346,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1350,7 +1354,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1363,7 +1367,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1380,7 +1384,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1424,7 +1428,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>295.58500000000004</v>
+        <v>298.08500000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1434,12 +1438,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>172.125</v>
+        <v>172.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1465,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1481,7 +1485,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1501,7 +1505,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1547,7 +1551,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1567,7 +1571,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>46</v>
@@ -1638,7 +1642,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1658,7 +1662,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1678,7 +1682,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1698,7 +1702,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1718,7 +1722,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1742,7 +1746,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>49</v>
       </c>
@@ -1760,7 +1764,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1780,7 +1784,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1800,7 +1804,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -1844,7 +1848,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1864,7 +1868,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1884,7 +1888,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1904,7 +1908,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1924,7 +1928,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1944,7 +1948,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -1990,7 +1994,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -2014,7 +2018,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +2036,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -2052,7 +2056,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -2072,7 +2076,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -2118,7 +2122,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -2138,7 +2142,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -2158,7 +2162,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -2178,7 +2182,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -2198,7 +2202,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -2218,7 +2222,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -2238,7 +2242,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -2258,7 +2262,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -2282,7 +2286,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>56</v>
       </c>
@@ -2300,7 +2304,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -2320,7 +2324,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -2340,7 +2344,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -2360,7 +2364,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -2380,7 +2384,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -2400,7 +2404,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -2420,7 +2424,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -2440,7 +2444,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -2460,7 +2464,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -2480,7 +2484,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -2500,7 +2504,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -2520,7 +2524,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -2544,7 +2548,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>58</v>
       </c>
@@ -2562,7 +2566,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -2582,7 +2586,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -2602,7 +2606,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -2622,7 +2626,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>37435</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>60</v>
@@ -2722,7 +2726,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44743</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44774</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44805</v>
       </c>
@@ -2794,7 +2798,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44835</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44896</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>66</v>
@@ -2892,7 +2896,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>64</v>
       </c>
@@ -2910,7 +2914,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -2936,7 +2940,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>46</v>
@@ -3010,7 +3014,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -3030,20 +3034,22 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39">
         <v>2</v>
@@ -3054,7 +3060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>46</v>
@@ -3074,18 +3080,20 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45078</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39">
         <v>1</v>
@@ -3094,11 +3102,13 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45108</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -3107,12 +3117,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>2</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45139</v>
       </c>
@@ -3130,7 +3144,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45170</v>
       </c>
@@ -3148,7 +3162,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45200</v>
       </c>
@@ -3166,7 +3180,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45231</v>
       </c>
@@ -3184,7 +3198,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45261</v>
       </c>
@@ -3202,7 +3216,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45292</v>
       </c>
@@ -3220,7 +3234,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45323</v>
       </c>
@@ -3238,7 +3252,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45352</v>
       </c>
@@ -3256,7 +3270,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45383</v>
       </c>
@@ -3274,7 +3288,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45413</v>
       </c>
@@ -3292,7 +3306,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45444</v>
       </c>
@@ -3310,7 +3324,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45474</v>
       </c>
@@ -3328,7 +3342,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45505</v>
       </c>
@@ -3346,7 +3360,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45536</v>
       </c>
@@ -3364,7 +3378,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45566</v>
       </c>
@@ -3382,7 +3396,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45597</v>
       </c>
@@ -3400,7 +3414,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45627</v>
       </c>
@@ -3418,7 +3432,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45658</v>
       </c>
@@ -3436,7 +3450,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45689</v>
       </c>
@@ -3454,7 +3468,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45717</v>
       </c>
@@ -3472,7 +3486,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45748</v>
       </c>
@@ -3490,7 +3504,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45778</v>
       </c>
@@ -3508,7 +3522,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45809</v>
       </c>
@@ -3526,7 +3540,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45839</v>
       </c>
@@ -3544,7 +3558,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45870</v>
       </c>
@@ -3562,7 +3576,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45901</v>
       </c>
@@ -3580,7 +3594,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45931</v>
       </c>
@@ -3598,7 +3612,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45962</v>
       </c>
@@ -3616,7 +3630,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45992</v>
       </c>
@@ -3634,7 +3648,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>46023</v>
       </c>
@@ -3652,7 +3666,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46054</v>
       </c>
@@ -3670,7 +3684,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>46082</v>
       </c>
@@ -3688,7 +3702,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>46113</v>
       </c>
@@ -3706,7 +3720,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>46143</v>
       </c>
@@ -3724,7 +3738,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>46174</v>
       </c>
@@ -3742,7 +3756,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>46204</v>
       </c>
@@ -3760,7 +3774,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>46235</v>
       </c>
@@ -3778,7 +3792,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46266</v>
       </c>
@@ -3796,7 +3810,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>46296</v>
       </c>
@@ -3814,7 +3828,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>46327</v>
       </c>
@@ -3832,7 +3846,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>46357</v>
       </c>
@@ -3850,7 +3864,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>46388</v>
       </c>
@@ -3868,7 +3882,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>46419</v>
       </c>
@@ -3886,7 +3900,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>46447</v>
       </c>
@@ -3904,7 +3918,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>46478</v>
       </c>
@@ -3922,7 +3936,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>46508</v>
       </c>
@@ -3940,7 +3954,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>46539</v>
       </c>
@@ -3958,7 +3972,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>46569</v>
       </c>
@@ -3990,10 +4004,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4016,28 +4030,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4050,7 +4064,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4079,7 +4093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>240.58500000000001</v>
       </c>
@@ -4103,17 +4117,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4134,7 +4148,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4161,7 +4175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4187,7 +4201,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4213,7 +4227,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4239,7 +4253,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4265,7 +4279,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4291,7 +4305,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4317,7 +4331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4343,7 +4357,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4363,7 +4377,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4383,7 +4397,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4403,7 +4417,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4424,7 +4438,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4445,7 +4459,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4466,7 +4480,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4487,7 +4501,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4508,7 +4522,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4529,7 +4543,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4550,7 +4564,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4571,7 +4585,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4592,7 +4606,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4613,7 +4627,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4634,7 +4648,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4655,7 +4669,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4676,7 +4690,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4697,7 +4711,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4718,7 +4732,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4739,7 +4753,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4760,7 +4774,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4781,7 +4795,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4802,7 +4816,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4823,7 +4837,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4832,7 +4846,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4841,7 +4855,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4850,7 +4864,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4859,7 +4873,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4868,7 +4882,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4877,7 +4891,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4886,7 +4900,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4895,7 +4909,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4904,7 +4918,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4913,7 +4927,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4922,7 +4936,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4931,7 +4945,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4940,7 +4954,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4949,7 +4963,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4958,7 +4972,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4967,7 +4981,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4976,7 +4990,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4985,7 +4999,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4994,7 +5008,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5003,7 +5017,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5012,7 +5026,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5021,7 +5035,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5030,7 +5044,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5039,7 +5053,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5048,7 +5062,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5057,7 +5071,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5066,7 +5080,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5075,7 +5089,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5084,7 +5098,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/re encode/MACAPUNO, FELIX.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/MACAPUNO, FELIX.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121C36C-935A-4B55-9D87-7DC4E713B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -918,7 +917,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -935,25 +934,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1260,34 +1259,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <selection pane="bottomLeft" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1307,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1325,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1345,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1354,7 +1353,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1367,7 +1366,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1384,7 +1383,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1438,12 +1437,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>172.625</v>
+        <v>170.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1465,7 +1464,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1485,7 +1484,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1505,7 +1504,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1551,7 +1550,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1571,7 +1570,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>46</v>
@@ -1642,7 +1641,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1662,7 +1661,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1682,7 +1681,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1702,7 +1701,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1722,7 +1721,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>49</v>
       </c>
@@ -1764,7 +1763,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1784,7 +1783,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1804,7 +1803,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -1848,7 +1847,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1868,7 +1867,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1888,7 +1887,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1908,7 +1907,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -1928,7 +1927,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -1948,7 +1947,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -1994,7 +1993,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -2018,7 +2017,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>52</v>
       </c>
@@ -2036,7 +2035,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -2056,7 +2055,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -2076,7 +2075,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -2122,7 +2121,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -2142,7 +2141,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -2162,7 +2161,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -2182,7 +2181,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -2202,7 +2201,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -2222,7 +2221,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -2242,7 +2241,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -2262,7 +2261,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -2286,7 +2285,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>56</v>
       </c>
@@ -2304,7 +2303,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -2324,7 +2323,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -2344,7 +2343,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -2364,7 +2363,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -2384,7 +2383,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -2404,7 +2403,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -2424,7 +2423,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -2444,7 +2443,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -2464,7 +2463,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -2484,7 +2483,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -2504,7 +2503,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -2524,7 +2523,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -2548,7 +2547,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>58</v>
       </c>
@@ -2566,7 +2565,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -2586,7 +2585,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -2606,7 +2605,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -2626,7 +2625,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>37435</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>60</v>
@@ -2726,7 +2725,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44743</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44774</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44805</v>
       </c>
@@ -2798,7 +2797,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44835</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44896</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>66</v>
@@ -2896,7 +2895,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>64</v>
       </c>
@@ -2914,7 +2913,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>46</v>
@@ -3014,7 +3013,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -3034,7 +3033,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>46</v>
@@ -3080,7 +3079,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45078</v>
       </c>
@@ -3102,7 +3101,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45108</v>
       </c>
@@ -3126,11 +3125,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B88" s="20"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -3139,16 +3138,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B89" s="20"/>
+      <c r="K88" s="49">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -3157,14 +3160,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="49">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3180,9 +3187,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3198,9 +3205,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3216,9 +3223,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3234,9 +3241,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3252,9 +3259,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3270,9 +3277,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3288,9 +3295,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3306,9 +3313,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3324,9 +3331,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3342,9 +3349,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3360,9 +3367,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3378,9 +3385,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3396,9 +3403,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3414,9 +3421,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3432,9 +3439,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3450,9 +3457,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3468,9 +3475,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3486,9 +3493,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3504,9 +3511,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3522,9 +3529,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3540,9 +3547,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3558,9 +3565,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3576,9 +3583,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3594,9 +3601,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3612,9 +3619,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3630,9 +3637,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3648,9 +3655,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3666,9 +3673,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3684,9 +3691,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3702,9 +3709,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3720,9 +3727,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3738,9 +3745,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3756,9 +3763,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3774,9 +3781,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3792,9 +3799,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3810,9 +3817,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3828,9 +3835,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3846,9 +3853,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3864,9 +3871,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3882,9 +3889,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3900,9 +3907,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3918,9 +3925,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3936,9 +3943,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3954,9 +3961,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3972,23 +3979,59 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40">
         <v>46569</v>
       </c>
-      <c r="B135" s="15"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="42"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="42"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4004,10 +4047,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4030,28 +4073,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4064,7 +4107,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4093,7 +4136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>240.58500000000001</v>
       </c>
@@ -4117,17 +4160,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4148,7 +4191,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4175,7 +4218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4201,7 +4244,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4227,7 +4270,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4253,7 +4296,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4279,7 +4322,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4305,7 +4348,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4331,7 +4374,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4357,7 +4400,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4377,7 +4420,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4397,7 +4440,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4417,7 +4460,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4438,7 +4481,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4459,7 +4502,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4480,7 +4523,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4501,7 +4544,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4522,7 +4565,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4543,7 +4586,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4564,7 +4607,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4585,7 +4628,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4606,7 +4649,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4627,7 +4670,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4648,7 +4691,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4669,7 +4712,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4690,7 +4733,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4711,7 +4754,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4732,7 +4775,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4753,7 +4796,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4774,7 +4817,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4795,7 +4838,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4816,7 +4859,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4837,7 +4880,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4846,7 +4889,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4855,7 +4898,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4864,7 +4907,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4873,7 +4916,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4882,7 +4925,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4891,7 +4934,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4900,7 +4943,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4909,7 +4952,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4918,7 +4961,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4927,7 +4970,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4936,7 +4979,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4945,7 +4988,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4954,7 +4997,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4963,7 +5006,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4972,7 +5015,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4981,7 +5024,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4990,7 +5033,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4999,7 +5042,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5008,7 +5051,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5017,7 +5060,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5026,7 +5069,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5035,7 +5078,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5044,7 +5087,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5053,7 +5096,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5062,7 +5105,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5071,7 +5114,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5080,7 +5123,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5089,7 +5132,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5098,7 +5141,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
